--- a/GeorgiDjenkov/Test 5 05.02.2019/TC0001 Test Case Open Contact us.xlsx
+++ b/GeorgiDjenkov/Test 5 05.02.2019/TC0001 Test Case Open Contact us.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgidjenkov/Desktop/Skillo/SoftwareTesting2201/GeorgiDjenkov/Test Case 30.01-05.02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgidjenkov/Desktop/Skillo/SoftwareTesting2201/GeorgiDjenkov/Test 5 05.02.2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F073D9-523C-CB4B-9477-55B1E1E02573}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF420C4-3A3C-084B-BA71-749B1A2FCB3B}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="1200" windowWidth="24960" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,13 @@
     <t>Click &lt; Contact us &gt;</t>
   </si>
   <si>
-    <t>5.февруари.2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test open  &lt;Contact us&gt; </t>
   </si>
   <si>
     <t>&lt; Contact us &gt; Open</t>
+  </si>
+  <si>
+    <t>14.февруари.2019</t>
   </si>
 </sst>
 </file>
@@ -211,6 +211,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -220,7 +221,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="88.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -514,18 +514,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,10 +588,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -606,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
